--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -21,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Filter products by category</t>
+  </si>
+  <si>
+    <t>Search products by name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,15 +92,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>625929</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>149679</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>402772</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>39461</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -97,6 +108,58 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>357868</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -407,14 +470,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A60:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -426,15 +500,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -444,6 +518,31 @@
         <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -70,7 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -92,15 +92,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>625929</xdr:colOff>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>149679</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>402772</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>39461</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -143,23 +143,88 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>357868</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>134</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -470,21 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A60:A98"/>
+  <dimension ref="A60:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N135" sqref="N135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>0</v>
       </c>
     </row>
@@ -520,27 +585,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId5">
+        <oleObject progId="Visio.Drawing.15" shapeId="1028" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId5"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1028" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>134</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Filter products by category</t>
   </si>
   <si>
     <t>Search products by name</t>
+  </si>
+  <si>
+    <t>Book product and manage basket</t>
   </si>
 </sst>
 </file>
@@ -40,7 +43,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -70,7 +73,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,23 +183,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -225,6 +215,58 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>142</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>229</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -535,22 +577,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A60:A106"/>
+  <dimension ref="A60:A140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N135" sqref="N135"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -633,6 +680,31 @@
         <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>142</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>229</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Filter products by category</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>Book product and manage basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Logi out</t>
+  </si>
+  <si>
+    <t>Account management: Start</t>
+  </si>
+  <si>
+    <t>Account management: Create</t>
+  </si>
+  <si>
+    <t>Account management: update</t>
   </si>
 </sst>
 </file>
@@ -267,6 +282,253 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>236</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>271</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>279</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>308</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>315</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>350</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>356</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>404</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -577,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A60:A140"/>
+  <dimension ref="A60:A407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O408" sqref="O408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,6 +860,31 @@
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -705,6 +992,106 @@
         <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1031" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>236</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>271</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1031" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1032" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>279</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>308</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1032" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1034" r:id="rId15">
+          <objectPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>315</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>350</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1034" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1035" r:id="rId17">
+          <objectPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>356</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>404</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1035" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISDProject\Document\Activity diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -88,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -126,6 +126,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -168,7 +171,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -178,6 +181,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -220,9 +226,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>134</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -230,6 +236,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -272,7 +281,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>229</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -282,6 +291,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -335,6 +347,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -354,23 +369,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -391,7 +393,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>308</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -399,6 +401,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -419,23 +424,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -450,13 +442,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>315</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>18142</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
           <xdr:row>350</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>170542</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -464,6 +456,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -484,23 +479,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -519,9 +501,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>241300</xdr:colOff>
           <xdr:row>404</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -529,6 +511,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -549,23 +534,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -841,48 +813,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A60:A407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O408" sqref="O408"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -930,7 +902,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -955,9 +927,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>469900</xdr:colOff>
                 <xdr:row>134</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -980,7 +952,7 @@
               </from>
               <to>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>127000</xdr:colOff>
                 <xdr:row>229</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -1032,7 +1004,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>308</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1045,19 +1017,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Visio.Drawing.15" shapeId="1034" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>315</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>350</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1080,9 +1052,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:colOff>241300</xdr:colOff>
                 <xdr:row>404</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Filter products by category</t>
   </si>
@@ -49,6 +49,30 @@
   <si>
     <t>Account management: update</t>
   </si>
+  <si>
+    <t>Account management: remove</t>
+  </si>
+  <si>
+    <t>Category management: start</t>
+  </si>
+  <si>
+    <t>Category management: create</t>
+  </si>
+  <si>
+    <t>Category management: update</t>
+  </si>
+  <si>
+    <t>Cateory management: remove</t>
+  </si>
+  <si>
+    <t>Log management: start</t>
+  </si>
+  <si>
+    <t>Log management: create</t>
+  </si>
+  <si>
+    <t>Log management: print</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +82,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -88,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,23 +378,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -399,6 +410,162 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>315</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>350</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>356</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>404</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>409</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>459</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -449,21 +616,21 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>315</xdr:row>
+          <xdr:row>466</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>350</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>516</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1034"/>
+                  <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -514,21 +681,411 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>356</xdr:row>
+          <xdr:row>523</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>404</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>553</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+            <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>559</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>609</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>615</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>674</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>598714</xdr:colOff>
+          <xdr:row>735</xdr:row>
+          <xdr:rowOff>40822</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>434068</xdr:colOff>
+          <xdr:row>765</xdr:row>
+          <xdr:rowOff>97972</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>682</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>726</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Object 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>771</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>805</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>810</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>839</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Object 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -839,52 +1396,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A60:A407"/>
+  <dimension ref="A60:A809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O408" sqref="O408"/>
+    <sheetView tabSelected="1" topLeftCell="A756" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B811" sqref="B811"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1092,6 +1689,231 @@
         <oleObject progId="Visio.Drawing.15" shapeId="1035" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1036" r:id="rId19">
+          <objectPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>409</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>459</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1036" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1037" r:id="rId21">
+          <objectPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>466</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>516</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1037" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1038" r:id="rId23">
+          <objectPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>523</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>553</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1038" r:id="rId23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1039" r:id="rId25">
+          <objectPr defaultSize="0" r:id="rId26">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>559</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>609</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1039" r:id="rId25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1040" r:id="rId27">
+          <objectPr defaultSize="0" r:id="rId28">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>615</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>674</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1040" r:id="rId27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1041" r:id="rId29">
+          <objectPr defaultSize="0" r:id="rId30">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>735</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>765</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1041" r:id="rId29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1042" r:id="rId31">
+          <objectPr defaultSize="0" r:id="rId32">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>682</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>726</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1042" r:id="rId31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1043" r:id="rId33">
+          <objectPr defaultSize="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>771</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>805</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1043" r:id="rId33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1044" r:id="rId35">
+          <objectPr defaultSize="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>810</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>839</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1044" r:id="rId35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Document/Activity diagram/Activity diagram.xlsx
+++ b/Document/Activity diagram/Activity diagram.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISDProject\Document\Activity diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Activity diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Filter products by category</t>
   </si>
@@ -49,30 +49,78 @@
   <si>
     <t>Account management: update</t>
   </si>
+  <si>
+    <t>Activity 1</t>
+  </si>
+  <si>
+    <t>Brief description</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Basic flow</t>
+  </si>
+  <si>
+    <t>Special Requirement</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Postcondition</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t>Display product</t>
+  </si>
+  <si>
+    <t>This actitty defines the steps of displaying product in webpage from store</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Access to website</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Custome access to website. The system receives request and then get data from database. The system display the products on webpage.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,15 +128,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -109,16 +274,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>193221</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>43543</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>644978</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>106136</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -128,7 +293,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -165,15 +330,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>13608</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>108857</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>412750</xdr:colOff>
-          <xdr:row>101</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>423183</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>108857</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -183,7 +348,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -220,15 +385,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>112</xdr:row>
+          <xdr:rowOff>27215</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>469900</xdr:colOff>
-          <xdr:row>134</xdr:row>
-          <xdr:rowOff>146050</xdr:rowOff>
+          <xdr:colOff>575582</xdr:colOff>
+          <xdr:row>138</xdr:row>
+          <xdr:rowOff>170090</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -238,7 +403,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -281,7 +446,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>229</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -293,7 +458,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -348,7 +513,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -393,7 +558,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>308</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -403,7 +568,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -442,13 +607,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>315</xdr:row>
-          <xdr:rowOff>18142</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
           <xdr:row>350</xdr:row>
-          <xdr:rowOff>170542</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -458,7 +623,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -501,9 +666,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>404</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -513,7 +678,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -811,55 +976,1090 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A60:A407"/>
+  <dimension ref="A2:N407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -870,16 +2070,16 @@
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -892,19 +2092,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Visio.Drawing.15" shapeId="1028" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>412750</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -917,19 +2117,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>469900</xdr:colOff>
-                <xdr:row>134</xdr:row>
-                <xdr:rowOff>146050</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>138</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -952,7 +2152,7 @@
               </from>
               <to>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>229</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -1004,7 +2204,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>308</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1052,9 +2252,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>241300</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>404</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
